--- a/Peaks-dataset-article/redes-ensemble/Teste03/content/results/metrics_36_6.xlsx
+++ b/Peaks-dataset-article/redes-ensemble/Teste03/content/results/metrics_36_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,382 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9547553977218006</v>
+        <v>0.9850650698747189</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6949276857814958</v>
+        <v>0.7156649494433436</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6823748485925203</v>
+        <v>0.9665221339784404</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9571669003193635</v>
+        <v>0.9581799028458847</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8914477328475546</v>
+        <v>0.9677874466196775</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3025508637665568</v>
+        <v>0.09986994651678469</v>
       </c>
       <c r="H2" t="n">
-        <v>2.04001996990798</v>
+        <v>1.901349792314884</v>
       </c>
       <c r="I2" t="n">
-        <v>1.035729708185758</v>
+        <v>0.3145613117142986</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4309922877280949</v>
+        <v>0.08203753812183892</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7333609979569266</v>
+        <v>0.1982994079666453</v>
       </c>
       <c r="L2" t="n">
-        <v>1.281416905967748</v>
+        <v>0.4096372426628603</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5500462378441987</v>
+        <v>0.3160220665029337</v>
       </c>
       <c r="N2" t="n">
-        <v>1.00996211426309</v>
+        <v>1.007315067816464</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5734628449419074</v>
+        <v>0.3294757801298258</v>
       </c>
       <c r="P2" t="n">
-        <v>268.3910117419263</v>
+        <v>150.6077729485112</v>
       </c>
       <c r="Q2" t="n">
-        <v>430.5014964493969</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>model_36_6_1</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9500340675484971</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.6948791633104007</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.629662301927389</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.9465442098120239</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.8708155693377393</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.334122420375164</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.040344439895618</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.207617703620867</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5378791980316128</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.87274845082624</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.231530930170455</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.5780332346631671</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1.011001673200331</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.6026413061565296</v>
-      </c>
-      <c r="P3" t="n">
-        <v>268.1924956501822</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>430.3029803576529</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>model_36_6_2</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9451674849711786</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.6943437434814002</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.5791483705184266</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.9361682441329126</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.8508977473558041</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.3666652804782444</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.043924794757526</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.372336332500482</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.6422835306335328</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.007309931567007</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.184616918515589</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.6055289262109982</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.012073214318273</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.6313075462174796</v>
-      </c>
-      <c r="P4" t="n">
-        <v>268.0066117787696</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>430.1170964862403</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>model_36_6_3</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9403083318693326</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.693494947567028</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.5313833393650498</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.9261910396614109</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.8319403058678723</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.3991584596446315</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.049600696945278</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.528091194981456</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.7426754754697695</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.13538324199152</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.140638950582502</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.6317898856776923</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1.013143119588404</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.6586864890963513</v>
-      </c>
-      <c r="P5" t="n">
-        <v>267.8367935979315</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>429.9472783054022</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>model_36_6_4</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9355608091143635</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.692455682039309</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.4866840808373634</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.9166986493814802</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.8140837598941895</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.4309051661674429</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.056550270314514</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.673849016066622</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.8381891560873032</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.256019086076963</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.099543116687976</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.6564336723290807</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1.01418844569959</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.6843794127651603</v>
-      </c>
-      <c r="P6" t="n">
-        <v>267.6837344903662</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>429.7942191978369</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>model_36_6_5</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9309952559633048</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.6913127927306704</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.445201548064233</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.9077375815887611</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.7973992160118166</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.4614350411110115</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.064192776383901</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.809117559421999</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.9283565998928353</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.368737079657417</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.061262473593868</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.6792901008486812</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1.015193705108997</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.7082088867661699</v>
-      </c>
-      <c r="P7" t="n">
-        <v>267.5468279818709</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>429.6573126893416</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>model_36_6_6</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9266564947186219</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.6901268755681169</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.4069587997347885</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.899328643856009</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.7819077207087849</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.4904483575323645</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2.072123009910543</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.933821633995307</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.0129684383501</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1.473395036172703</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.033972302985301</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.7003201821541091</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1.016149028685808</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.7301342621710396</v>
-      </c>
-      <c r="P8" t="n">
-        <v>267.4248705817533</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>429.535355289224</v>
+        <v>239.5857081638898</v>
       </c>
     </row>
   </sheetData>
